--- a/medicine/Enfance/Molly_Cochran/Molly_Cochran.xlsx
+++ b/medicine/Enfance/Molly_Cochran/Molly_Cochran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Molly Cochran, née en 1949 à Tokyo, au Japon, est une femme de lettres américaine, auteure de roman policier, de fantasy et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait des études à l'université de Pittsburgh et à l'université de Paris à la Sorbonne.
 Elle est la femme de Warren Murphy avec qui elle coécrit plusieurs romans, dont Grandmaster en 1985 pour lequel ils sont lauréats du prix Edgar-Allan-Poe 1985 du meilleur livre de poche original. Ce récit, comme sa suite intitulé High Priest (1987), mêle intrigue policière et fantasy.
@@ -546,67 +560,378 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans coécrits avec Warren Murphy
-Série Grandmaster
-Grandmaster (1985) Publié en français sous le titre Le Grand Maître, Paris, Éditions Carrère, coll. « Poche », 1986  (ISBN 2-86804-267-8)
-High Priest (1987)
-Série Forever King
-The Forever King (1992) Publié en français sous le titre Le Maître de l'éternité, Paris, J'ai lu coll. « SF-Fantasy » no 3814, 1994  (ISBN 2-277-23814-7)
-The Broken Sword (1997)
-Autres romans coécrits avec Warren Murphy
-The Hand of Lazarus (1988)
+          <t>Romans coécrits avec Warren Murphy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Grandmaster</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Grandmaster (1985) Publié en français sous le titre Le Grand Maître, Paris, Éditions Carrère, coll. « Poche », 1986  (ISBN 2-86804-267-8)
+High Priest (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans coécrits avec Warren Murphy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Forever King</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Forever King (1992) Publié en français sous le titre Le Maître de l'éternité, Paris, J'ai lu coll. « SF-Fantasy » no 3814, 1994  (ISBN 2-277-23814-7)
+The Broken Sword (1997)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans coécrits avec Warren Murphy</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans coécrits avec Warren Murphy</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Hand of Lazarus (1988)
 The Temple Dogs (1989)
-World without End (1996)
-Romans signés Molly Cochran
-Série Forever King
-The Third Magic (2003)
-Série Legacy
-Legacy (2011)
+World without End (1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés Molly Cochran</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Forever King</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Third Magic (2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans signés Molly Cochran</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Legacy</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Legacy (2011)
 Poison (2012)
 Seduction (2014)
 Wishes (2014)
-Revels (2014)
-Autre roman
-Mireille (2015)
-Romans signés Dev Stryker
-Série Amelia Pierce
-Deathright (1993)
-A Wilderness of Mirrors (2000)
-Autre roman
-End Game (1994)
-Autre ouvrage
-Dressing Thin (1980)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Molly_Cochran</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Revels (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans signés Molly Cochran</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autre roman</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mireille (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans signés Dev Stryker</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Amelia Pierce</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Deathright (1993)
+A Wilderness of Mirrors (2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans signés Dev Stryker</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Autre roman</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>End Game (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autre ouvrage</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dressing Thin (1980)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Molly_Cochran</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Edgar-Allan-Poe  1985 du meilleur livre de poche original pour Grandmaster[1]</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Prix Edgar-Allan-Poe  1985 du meilleur livre de poche original pour Grandmaster</t>
         </is>
       </c>
     </row>
